--- a/Team-Data/2013-14/1-13-2013-14.xlsx
+++ b/Team-Data/2013-14/1-13-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -774,19 +841,19 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>16</v>
@@ -798,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
@@ -816,11 +883,11 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC2" t="n">
         <v>14</v>
       </c>
-      <c r="BC2" t="n">
-        <v>13</v>
-      </c>
       <c r="BD2" t="n">
         <v>10</v>
       </c>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.342</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -866,43 +933,43 @@
         <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>18.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U3" t="n">
         <v>19.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
         <v>6.8</v>
@@ -911,28 +978,28 @@
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -944,10 +1011,10 @@
         <v>20</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,16 +1023,16 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
@@ -989,16 +1056,16 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1147,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1299,7 +1366,7 @@
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
@@ -1308,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.472</v>
+        <v>0.486</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1418,43 +1485,43 @@
         <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P6" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.765</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W6" t="n">
         <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
@@ -1463,22 +1530,22 @@
         <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1499,19 +1566,19 @@
         <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN6" t="n">
         <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>7</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
@@ -1669,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1714,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,28 +1843,28 @@
         <v>39.2</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.375</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.801</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
         <v>9.699999999999999</v>
@@ -1812,40 +1879,40 @@
         <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
         <v>18.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1854,19 +1921,19 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
       </c>
       <c r="AL8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN8" t="n">
         <v>7</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>20</v>
@@ -1878,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>26</v>
@@ -1887,16 +1954,16 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
         <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1908,7 +1975,7 @@
         <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.514</v>
+        <v>0.528</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1967,73 +2034,73 @@
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.729</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
         <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="U9" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
         <v>22.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
         <v>102.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2045,10 +2112,10 @@
         <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2057,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2072,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>18</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2263,10 +2330,10 @@
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2424,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.641</v>
+        <v>0.632</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2513,31 +2580,31 @@
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
         <v>21.9</v>
       </c>
       <c r="P12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
         <v>34.3</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2546,13 +2613,13 @@
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
         <v>24.6</v>
@@ -2561,22 +2628,22 @@
         <v>105.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2591,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2621,10 +2688,10 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,16 +2834,16 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2803,13 +2870,13 @@
         <v>25</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -2940,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -2973,16 +3040,16 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -3128,10 +3195,10 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3143,7 +3210,7 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3158,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
         <v>22</v>
@@ -3179,13 +3246,13 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-0.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -3328,10 +3395,10 @@
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3361,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3578,19 +3645,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.189</v>
+        <v>0.194</v>
       </c>
       <c r="H18" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I18" t="n">
         <v>34.7</v>
@@ -3602,34 +3669,34 @@
         <v>0.42</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
         <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
         <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
         <v>15.8</v>
@@ -3638,25 +3705,25 @@
         <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,19 +3741,19 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,25 +3762,25 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3722,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3859,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.405</v>
+        <v>0.417</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I20" t="n">
         <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3969,37 +4036,37 @@
         <v>6.2</v>
       </c>
       <c r="M20" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.386</v>
+        <v>0.381</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>6.1</v>
@@ -4008,19 +4075,19 @@
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA20" t="n">
         <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4047,19 +4114,19 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
@@ -4068,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4086,16 +4153,16 @@
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -4124,19 +4191,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.405</v>
+        <v>0.389</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
         <v>36.3</v>
@@ -4151,37 +4218,37 @@
         <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N21" t="n">
         <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="P21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>39.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V21" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>4.4</v>
@@ -4190,49 +4257,49 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
         <v>19</v>
       </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,13 +4320,13 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
         <v>25</v>
@@ -4268,13 +4335,13 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
@@ -4506,10 +4573,10 @@
         <v>36.1</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
         <v>7.3</v>
@@ -4518,25 +4585,25 @@
         <v>21.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O23" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
@@ -4548,25 +4615,25 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,16 +4645,16 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4596,28 +4663,28 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
@@ -4635,14 +4702,14 @@
         <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC23" t="n">
         <v>25</v>
       </c>
-      <c r="BC23" t="n">
-        <v>27</v>
-      </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
         <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -4796,7 +4863,7 @@
         <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,13 +4884,13 @@
         <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>12</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
         <v>21</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.2</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,19 +5006,19 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4960,31 +5027,31 @@
         <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -4999,13 +5066,13 @@
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5139,16 +5206,16 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5294,25 +5361,25 @@
         <v>-1.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5324,7 +5391,7 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5345,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5357,13 +5424,13 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.491</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="P28" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
         <v>43.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.7</v>
       </c>
       <c r="X28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
         <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L29" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
         <v>22.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.358</v>
+        <v>0.353</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V29" t="n">
         <v>14.6</v>
@@ -5643,58 +5710,58 @@
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="n">
         <v>26</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>24</v>
-      </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
@@ -5718,22 +5785,22 @@
         <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5762,52 +5829,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
         <v>81.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O30" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P30" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R30" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
         <v>41.2</v>
@@ -5816,7 +5883,7 @@
         <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.1</v>
@@ -5834,34 +5901,34 @@
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.3</v>
+        <v>93.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.8</v>
+        <v>-7.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
         <v>26</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>25</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,31 +5937,31 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>25</v>
@@ -5903,13 +5970,13 @@
         <v>13</v>
       </c>
       <c r="AY30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>17</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>18</v>
-      </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.472</v>
+        <v>0.457</v>
       </c>
       <c r="H31" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I31" t="n">
         <v>37.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L31" t="n">
         <v>7.9</v>
@@ -5977,16 +6044,16 @@
         <v>0.38</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
         <v>31.5</v>
@@ -5995,10 +6062,10 @@
         <v>42.7</v>
       </c>
       <c r="U31" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
@@ -6010,28 +6077,28 @@
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
         <v>15</v>
       </c>
-      <c r="AF31" t="n">
-        <v>14</v>
-      </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,16 +6107,16 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM31" t="n">
         <v>17</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>5</v>
@@ -6058,13 +6125,13 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
@@ -6076,10 +6143,10 @@
         <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>19</v>
@@ -6088,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2013-14</t>
+          <t>2014-01-13</t>
         </is>
       </c>
     </row>
